--- a/149_0503124-3_TOFK_2020_04_07_05_57_17.xlsx
+++ b/149_0503124-3_TOFK_2020_04_07_05_57_17.xlsx
@@ -8993,15 +8993,16 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="48.33203125" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.1640625" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
     <col min="6" max="6" width="8.83203125" customWidth="1"/>
     <col min="7" max="11" width="22.1640625" customWidth="1"/>
   </cols>
@@ -9041,7 +9042,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
@@ -9076,7 +9077,7 @@
         <v>7613000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -9111,7 +9112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
@@ -9146,7 +9147,7 @@
         <v>631147900</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -9181,7 +9182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="242.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -9216,7 +9217,7 @@
         <v>493649400</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -9251,7 +9252,7 @@
         <v>253079900</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
@@ -9286,7 +9287,7 @@
         <v>31926500</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -9321,7 +9322,7 @@
         <v>10917800</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -9356,7 +9357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
@@ -9391,7 +9392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="153" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -9426,7 +9427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -9461,7 +9462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
@@ -9496,7 +9497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -9531,7 +9532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -9566,7 +9567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
@@ -9601,7 +9602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>11</v>
       </c>
@@ -9636,7 +9637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>11</v>
       </c>
@@ -9671,7 +9672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
@@ -9706,7 +9707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -9741,7 +9742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
@@ -9776,7 +9777,7 @@
         <v>86882700</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -9811,7 +9812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>11</v>
       </c>
@@ -9846,7 +9847,7 @@
         <v>69873600</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>11</v>
       </c>
@@ -9881,7 +9882,7 @@
         <v>30000000</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>11</v>
       </c>
@@ -9916,7 +9917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>11</v>
       </c>
@@ -9953,5 +9954,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>